--- a/public/template_import/TEMPLATE_IMPORT_PPH.xlsx
+++ b/public/template_import/TEMPLATE_IMPORT_PPH.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">KD_PGW</t>
   </si>
@@ -30,30 +30,14 @@
   <si>
     <t xml:space="preserve">PERIODE</t>
   </si>
-  <si>
-    <t xml:space="preserve">0323230002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0323230003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40000</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -79,20 +63,33 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -121,7 +118,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -134,32 +131,20 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -171,6 +156,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -179,13 +224,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ31"/>
+  <dimension ref="A1:AMJ446"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.79296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="27.8359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.5"/>
@@ -193,7 +238,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="6" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -210,27 +255,13 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0"/>
@@ -343,6 +374,1666 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0"/>
+      <c r="C50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0"/>
+      <c r="C52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0"/>
+      <c r="C54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0"/>
+      <c r="C55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0"/>
+      <c r="C57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0"/>
+      <c r="C59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0"/>
+      <c r="C65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0"/>
+      <c r="C66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0"/>
+      <c r="C67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0"/>
+      <c r="C68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0"/>
+      <c r="C71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0"/>
+      <c r="C72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0"/>
+      <c r="C73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0"/>
+      <c r="C74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0"/>
+      <c r="C75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0"/>
+      <c r="C76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0"/>
+      <c r="C77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0"/>
+      <c r="C78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0"/>
+      <c r="C79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0"/>
+      <c r="C80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0"/>
+      <c r="C81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0"/>
+      <c r="C82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0"/>
+      <c r="C83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0"/>
+      <c r="C84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0"/>
+      <c r="C85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0"/>
+      <c r="C86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0"/>
+      <c r="C87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0"/>
+      <c r="C88" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0"/>
+      <c r="C89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0"/>
+      <c r="C90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0"/>
+      <c r="C91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0"/>
+      <c r="C92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0"/>
+      <c r="C93" s="0"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0"/>
+      <c r="C94" s="0"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0"/>
+      <c r="C95" s="0"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0"/>
+      <c r="C96" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0"/>
+      <c r="C97" s="0"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0"/>
+      <c r="C98" s="0"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0"/>
+      <c r="C99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0"/>
+      <c r="C100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0"/>
+      <c r="C101" s="0"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0"/>
+      <c r="C102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0"/>
+      <c r="C103" s="0"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0"/>
+      <c r="C104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0"/>
+      <c r="C105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0"/>
+      <c r="C106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0"/>
+      <c r="C107" s="0"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0"/>
+      <c r="C108" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0"/>
+      <c r="C109" s="0"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0"/>
+      <c r="C110" s="0"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0"/>
+      <c r="C111" s="0"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0"/>
+      <c r="C112" s="0"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0"/>
+      <c r="C113" s="0"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0"/>
+      <c r="C114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0"/>
+      <c r="C115" s="0"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0"/>
+      <c r="C116" s="0"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0"/>
+      <c r="C117" s="0"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0"/>
+      <c r="C118" s="0"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0"/>
+      <c r="C119" s="0"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0"/>
+      <c r="C120" s="0"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0"/>
+      <c r="C121" s="0"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0"/>
+      <c r="C122" s="0"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="0"/>
+      <c r="C123" s="0"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0"/>
+      <c r="C124" s="0"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0"/>
+      <c r="C125" s="0"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0"/>
+      <c r="C126" s="0"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0"/>
+      <c r="C127" s="0"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="0"/>
+      <c r="C128" s="0"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="0"/>
+      <c r="C129" s="0"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="0"/>
+      <c r="C130" s="0"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="0"/>
+      <c r="C131" s="0"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="0"/>
+      <c r="C132" s="0"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="0"/>
+      <c r="C133" s="0"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="0"/>
+      <c r="C134" s="0"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="0"/>
+      <c r="C135" s="0"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="0"/>
+      <c r="C136" s="0"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="0"/>
+      <c r="C137" s="0"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="0"/>
+      <c r="C138" s="0"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="0"/>
+      <c r="C139" s="0"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="0"/>
+      <c r="C140" s="0"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="0"/>
+      <c r="C141" s="0"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="0"/>
+      <c r="C142" s="0"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="0"/>
+      <c r="C143" s="0"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="0"/>
+      <c r="C144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="0"/>
+      <c r="C145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="0"/>
+      <c r="C146" s="0"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="0"/>
+      <c r="C147" s="0"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="0"/>
+      <c r="C148" s="0"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="0"/>
+      <c r="C149" s="0"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="0"/>
+      <c r="C150" s="0"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="0"/>
+      <c r="C151" s="0"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="0"/>
+      <c r="C152" s="0"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="0"/>
+      <c r="C153" s="0"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="0"/>
+      <c r="C154" s="0"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="0"/>
+      <c r="C155" s="0"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="0"/>
+      <c r="C156" s="0"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="0"/>
+      <c r="C157" s="0"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="0"/>
+      <c r="C158" s="0"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="0"/>
+      <c r="C159" s="0"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0"/>
+      <c r="C160" s="0"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="0"/>
+      <c r="C161" s="0"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="0"/>
+      <c r="C162" s="0"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="0"/>
+      <c r="C163" s="0"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="0"/>
+      <c r="C164" s="0"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="0"/>
+      <c r="C165" s="0"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="0"/>
+      <c r="C166" s="0"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="0"/>
+      <c r="C167" s="0"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="0"/>
+      <c r="C168" s="0"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="0"/>
+      <c r="C169" s="0"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="0"/>
+      <c r="C170" s="0"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="0"/>
+      <c r="C171" s="0"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="0"/>
+      <c r="C172" s="0"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="0"/>
+      <c r="C173" s="0"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="0"/>
+      <c r="C174" s="0"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="0"/>
+      <c r="C175" s="0"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="0"/>
+      <c r="C176" s="0"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="0"/>
+      <c r="C177" s="0"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="0"/>
+      <c r="C178" s="0"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="0"/>
+      <c r="C179" s="0"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="0"/>
+      <c r="C180" s="0"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="0"/>
+      <c r="C181" s="0"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="0"/>
+      <c r="C182" s="0"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="0"/>
+      <c r="C183" s="0"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="0"/>
+      <c r="C184" s="0"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="0"/>
+      <c r="C185" s="0"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="0"/>
+      <c r="C186" s="0"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="0"/>
+      <c r="C187" s="0"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="0"/>
+      <c r="C188" s="0"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="0"/>
+      <c r="C189" s="0"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="0"/>
+      <c r="C190" s="0"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="0"/>
+      <c r="C191" s="0"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="0"/>
+      <c r="C192" s="0"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="0"/>
+      <c r="C193" s="0"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="0"/>
+      <c r="C194" s="0"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="0"/>
+      <c r="C195" s="0"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="0"/>
+      <c r="C196" s="0"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="0"/>
+      <c r="C197" s="0"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="0"/>
+      <c r="C198" s="0"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="0"/>
+      <c r="C199" s="0"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="0"/>
+      <c r="C200" s="0"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="0"/>
+      <c r="C201" s="0"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="0"/>
+      <c r="C202" s="0"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="0"/>
+      <c r="C203" s="0"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="0"/>
+      <c r="C204" s="0"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="0"/>
+      <c r="C205" s="0"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="0"/>
+      <c r="C206" s="0"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="0"/>
+      <c r="C207" s="0"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="0"/>
+      <c r="C208" s="0"/>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="0"/>
+      <c r="C209" s="0"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="0"/>
+      <c r="C210" s="0"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="0"/>
+      <c r="C211" s="0"/>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="0"/>
+      <c r="C212" s="0"/>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="0"/>
+      <c r="C213" s="0"/>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="0"/>
+      <c r="C214" s="0"/>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="0"/>
+      <c r="C215" s="0"/>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="0"/>
+      <c r="C216" s="0"/>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="0"/>
+      <c r="C217" s="0"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="0"/>
+      <c r="C218" s="0"/>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="0"/>
+      <c r="C219" s="0"/>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="0"/>
+      <c r="C220" s="0"/>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="0"/>
+      <c r="C221" s="0"/>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="0"/>
+      <c r="C222" s="0"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="0"/>
+      <c r="C223" s="0"/>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="0"/>
+      <c r="C224" s="0"/>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="0"/>
+      <c r="C225" s="0"/>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B226" s="0"/>
+      <c r="C226" s="0"/>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="0"/>
+      <c r="C227" s="0"/>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="0"/>
+      <c r="C228" s="0"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="0"/>
+      <c r="C229" s="0"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="0"/>
+      <c r="C230" s="0"/>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B231" s="0"/>
+      <c r="C231" s="0"/>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B232" s="0"/>
+      <c r="C232" s="0"/>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="0"/>
+      <c r="C233" s="0"/>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="0"/>
+      <c r="C234" s="0"/>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="0"/>
+      <c r="C235" s="0"/>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="0"/>
+      <c r="C236" s="0"/>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="0"/>
+      <c r="C237" s="0"/>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B238" s="0"/>
+      <c r="C238" s="0"/>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B239" s="0"/>
+      <c r="C239" s="0"/>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B240" s="0"/>
+      <c r="C240" s="0"/>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B241" s="0"/>
+      <c r="C241" s="0"/>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B242" s="0"/>
+      <c r="C242" s="0"/>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B243" s="0"/>
+      <c r="C243" s="0"/>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B244" s="0"/>
+      <c r="C244" s="0"/>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B245" s="0"/>
+      <c r="C245" s="0"/>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B246" s="0"/>
+      <c r="C246" s="0"/>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B247" s="0"/>
+      <c r="C247" s="0"/>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B248" s="0"/>
+      <c r="C248" s="0"/>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B249" s="0"/>
+      <c r="C249" s="0"/>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B250" s="0"/>
+      <c r="C250" s="0"/>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B251" s="0"/>
+      <c r="C251" s="0"/>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B252" s="0"/>
+      <c r="C252" s="0"/>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B253" s="0"/>
+      <c r="C253" s="0"/>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B254" s="0"/>
+      <c r="C254" s="0"/>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B255" s="0"/>
+      <c r="C255" s="0"/>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B256" s="0"/>
+      <c r="C256" s="0"/>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B257" s="0"/>
+      <c r="C257" s="0"/>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B258" s="0"/>
+      <c r="C258" s="0"/>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B259" s="0"/>
+      <c r="C259" s="0"/>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B260" s="0"/>
+      <c r="C260" s="0"/>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B261" s="0"/>
+      <c r="C261" s="0"/>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B262" s="0"/>
+      <c r="C262" s="0"/>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B263" s="0"/>
+      <c r="C263" s="0"/>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B264" s="0"/>
+      <c r="C264" s="0"/>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B265" s="0"/>
+      <c r="C265" s="0"/>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B266" s="0"/>
+      <c r="C266" s="0"/>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B267" s="0"/>
+      <c r="C267" s="0"/>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B268" s="0"/>
+      <c r="C268" s="0"/>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B269" s="0"/>
+      <c r="C269" s="0"/>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B270" s="0"/>
+      <c r="C270" s="0"/>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B271" s="0"/>
+      <c r="C271" s="0"/>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B272" s="0"/>
+      <c r="C272" s="0"/>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B273" s="0"/>
+      <c r="C273" s="0"/>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B274" s="0"/>
+      <c r="C274" s="0"/>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B275" s="0"/>
+      <c r="C275" s="0"/>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B276" s="0"/>
+      <c r="C276" s="0"/>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B277" s="0"/>
+      <c r="C277" s="0"/>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B278" s="0"/>
+      <c r="C278" s="0"/>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B279" s="0"/>
+      <c r="C279" s="0"/>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B280" s="0"/>
+      <c r="C280" s="0"/>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B281" s="0"/>
+      <c r="C281" s="0"/>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B282" s="0"/>
+      <c r="C282" s="0"/>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B283" s="0"/>
+      <c r="C283" s="0"/>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B284" s="0"/>
+      <c r="C284" s="0"/>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B285" s="0"/>
+      <c r="C285" s="0"/>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B286" s="0"/>
+      <c r="C286" s="0"/>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B287" s="0"/>
+      <c r="C287" s="0"/>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B288" s="0"/>
+      <c r="C288" s="0"/>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B289" s="0"/>
+      <c r="C289" s="0"/>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B290" s="0"/>
+      <c r="C290" s="0"/>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B291" s="0"/>
+      <c r="C291" s="0"/>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B292" s="0"/>
+      <c r="C292" s="0"/>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B293" s="0"/>
+      <c r="C293" s="0"/>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B294" s="0"/>
+      <c r="C294" s="0"/>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B295" s="0"/>
+      <c r="C295" s="0"/>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B296" s="0"/>
+      <c r="C296" s="0"/>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B297" s="0"/>
+      <c r="C297" s="0"/>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B298" s="0"/>
+      <c r="C298" s="0"/>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B299" s="0"/>
+      <c r="C299" s="0"/>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B300" s="0"/>
+      <c r="C300" s="0"/>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B301" s="0"/>
+      <c r="C301" s="0"/>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B302" s="0"/>
+      <c r="C302" s="0"/>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B303" s="0"/>
+      <c r="C303" s="0"/>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B304" s="0"/>
+      <c r="C304" s="0"/>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B305" s="0"/>
+      <c r="C305" s="0"/>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B306" s="0"/>
+      <c r="C306" s="0"/>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B307" s="0"/>
+      <c r="C307" s="0"/>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B308" s="0"/>
+      <c r="C308" s="0"/>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B309" s="0"/>
+      <c r="C309" s="0"/>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B310" s="0"/>
+      <c r="C310" s="0"/>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B311" s="0"/>
+      <c r="C311" s="0"/>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B312" s="0"/>
+      <c r="C312" s="0"/>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B313" s="0"/>
+      <c r="C313" s="0"/>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B314" s="0"/>
+      <c r="C314" s="0"/>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B315" s="0"/>
+      <c r="C315" s="0"/>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B316" s="0"/>
+      <c r="C316" s="0"/>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B317" s="0"/>
+      <c r="C317" s="0"/>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B318" s="0"/>
+      <c r="C318" s="0"/>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B319" s="0"/>
+      <c r="C319" s="0"/>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B320" s="0"/>
+      <c r="C320" s="0"/>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B321" s="0"/>
+      <c r="C321" s="0"/>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B322" s="0"/>
+      <c r="C322" s="0"/>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B323" s="0"/>
+      <c r="C323" s="0"/>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B324" s="0"/>
+      <c r="C324" s="0"/>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B325" s="0"/>
+      <c r="C325" s="0"/>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B326" s="0"/>
+      <c r="C326" s="0"/>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B327" s="0"/>
+      <c r="C327" s="0"/>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B328" s="0"/>
+      <c r="C328" s="0"/>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B329" s="0"/>
+      <c r="C329" s="0"/>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B330" s="0"/>
+      <c r="C330" s="0"/>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B331" s="0"/>
+      <c r="C331" s="0"/>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B332" s="0"/>
+      <c r="C332" s="0"/>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B333" s="0"/>
+      <c r="C333" s="0"/>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B334" s="0"/>
+      <c r="C334" s="0"/>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B335" s="0"/>
+      <c r="C335" s="0"/>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B336" s="0"/>
+      <c r="C336" s="0"/>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B337" s="0"/>
+      <c r="C337" s="0"/>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B338" s="0"/>
+      <c r="C338" s="0"/>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B339" s="0"/>
+      <c r="C339" s="0"/>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B340" s="0"/>
+      <c r="C340" s="0"/>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B341" s="0"/>
+      <c r="C341" s="0"/>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B342" s="0"/>
+      <c r="C342" s="0"/>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B343" s="0"/>
+      <c r="C343" s="0"/>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B344" s="0"/>
+      <c r="C344" s="0"/>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B345" s="0"/>
+      <c r="C345" s="0"/>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B346" s="0"/>
+      <c r="C346" s="0"/>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B347" s="0"/>
+      <c r="C347" s="0"/>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B348" s="0"/>
+      <c r="C348" s="0"/>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B349" s="0"/>
+      <c r="C349" s="0"/>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B350" s="0"/>
+      <c r="C350" s="0"/>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B351" s="0"/>
+      <c r="C351" s="0"/>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B352" s="0"/>
+      <c r="C352" s="0"/>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B353" s="0"/>
+      <c r="C353" s="0"/>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B354" s="0"/>
+      <c r="C354" s="0"/>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B355" s="0"/>
+      <c r="C355" s="0"/>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B356" s="0"/>
+      <c r="C356" s="0"/>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B357" s="0"/>
+      <c r="C357" s="0"/>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B358" s="0"/>
+      <c r="C358" s="0"/>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B359" s="0"/>
+      <c r="C359" s="0"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B360" s="0"/>
+      <c r="C360" s="0"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B361" s="0"/>
+      <c r="C361" s="0"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B362" s="0"/>
+      <c r="C362" s="0"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B363" s="0"/>
+      <c r="C363" s="0"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B364" s="0"/>
+      <c r="C364" s="0"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B365" s="0"/>
+      <c r="C365" s="0"/>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B366" s="0"/>
+      <c r="C366" s="0"/>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B367" s="0"/>
+      <c r="C367" s="0"/>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B368" s="0"/>
+      <c r="C368" s="0"/>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B369" s="0"/>
+      <c r="C369" s="0"/>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B370" s="0"/>
+      <c r="C370" s="0"/>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B371" s="0"/>
+      <c r="C371" s="0"/>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B372" s="0"/>
+      <c r="C372" s="0"/>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B373" s="0"/>
+      <c r="C373" s="0"/>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B374" s="0"/>
+      <c r="C374" s="0"/>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B375" s="0"/>
+      <c r="C375" s="0"/>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B376" s="0"/>
+      <c r="C376" s="0"/>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B377" s="0"/>
+      <c r="C377" s="0"/>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B378" s="0"/>
+      <c r="C378" s="0"/>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B379" s="0"/>
+      <c r="C379" s="0"/>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B380" s="0"/>
+      <c r="C380" s="0"/>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B381" s="0"/>
+      <c r="C381" s="0"/>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B382" s="0"/>
+      <c r="C382" s="0"/>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B383" s="0"/>
+      <c r="C383" s="0"/>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B384" s="0"/>
+      <c r="C384" s="0"/>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B385" s="0"/>
+      <c r="C385" s="0"/>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B386" s="0"/>
+      <c r="C386" s="0"/>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B387" s="0"/>
+      <c r="C387" s="0"/>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B388" s="0"/>
+      <c r="C388" s="0"/>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B389" s="0"/>
+      <c r="C389" s="0"/>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B390" s="0"/>
+      <c r="C390" s="0"/>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B391" s="0"/>
+      <c r="C391" s="0"/>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B392" s="0"/>
+      <c r="C392" s="0"/>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B393" s="0"/>
+      <c r="C393" s="0"/>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B394" s="0"/>
+      <c r="C394" s="0"/>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B395" s="0"/>
+      <c r="C395" s="0"/>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B396" s="0"/>
+      <c r="C396" s="0"/>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B397" s="0"/>
+      <c r="C397" s="0"/>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B398" s="0"/>
+      <c r="C398" s="0"/>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B399" s="0"/>
+      <c r="C399" s="0"/>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B400" s="0"/>
+      <c r="C400" s="0"/>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B401" s="0"/>
+      <c r="C401" s="0"/>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B402" s="0"/>
+      <c r="C402" s="0"/>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B403" s="0"/>
+      <c r="C403" s="0"/>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B404" s="0"/>
+      <c r="C404" s="0"/>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B405" s="0"/>
+      <c r="C405" s="0"/>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B406" s="0"/>
+      <c r="C406" s="0"/>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B407" s="0"/>
+      <c r="C407" s="0"/>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B408" s="0"/>
+      <c r="C408" s="0"/>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B409" s="0"/>
+      <c r="C409" s="0"/>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B410" s="0"/>
+      <c r="C410" s="0"/>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B411" s="0"/>
+      <c r="C411" s="0"/>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B412" s="0"/>
+      <c r="C412" s="0"/>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B413" s="0"/>
+      <c r="C413" s="0"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B414" s="0"/>
+      <c r="C414" s="0"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B415" s="0"/>
+      <c r="C415" s="0"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B416" s="0"/>
+      <c r="C416" s="0"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B417" s="0"/>
+      <c r="C417" s="0"/>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B418" s="0"/>
+      <c r="C418" s="0"/>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B419" s="0"/>
+      <c r="C419" s="0"/>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B420" s="0"/>
+      <c r="C420" s="0"/>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B421" s="0"/>
+      <c r="C421" s="0"/>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B422" s="0"/>
+      <c r="C422" s="0"/>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B423" s="0"/>
+      <c r="C423" s="0"/>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B424" s="0"/>
+      <c r="C424" s="0"/>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B425" s="0"/>
+      <c r="C425" s="0"/>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B426" s="0"/>
+      <c r="C426" s="0"/>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B427" s="0"/>
+      <c r="C427" s="0"/>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B428" s="0"/>
+      <c r="C428" s="0"/>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B429" s="0"/>
+      <c r="C429" s="0"/>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B430" s="0"/>
+      <c r="C430" s="0"/>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B431" s="0"/>
+      <c r="C431" s="0"/>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B432" s="0"/>
+      <c r="C432" s="0"/>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B433" s="0"/>
+      <c r="C433" s="0"/>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B434" s="0"/>
+      <c r="C434" s="0"/>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B435" s="0"/>
+      <c r="C435" s="0"/>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B436" s="0"/>
+      <c r="C436" s="0"/>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B437" s="0"/>
+      <c r="C437" s="0"/>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B438" s="0"/>
+      <c r="C438" s="0"/>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B439" s="0"/>
+      <c r="C439" s="0"/>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B440" s="0"/>
+      <c r="C440" s="0"/>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B441" s="0"/>
+      <c r="C441" s="0"/>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B442" s="0"/>
+      <c r="C442" s="0"/>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B443" s="0"/>
+      <c r="C443" s="0"/>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B444" s="0"/>
+      <c r="C444" s="0"/>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B445" s="0"/>
+      <c r="C445" s="0"/>
+    </row>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B446" s="0"/>
+      <c r="C446" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/template_import/TEMPLATE_IMPORT_PPH.xlsx
+++ b/public/template_import/TEMPLATE_IMPORT_PPH.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t xml:space="preserve">KD_PGW</t>
   </si>
@@ -28,7 +28,25 @@
     <t xml:space="preserve">NILAI</t>
   </si>
   <si>
-    <t xml:space="preserve">PERIODE</t>
+    <t xml:space="preserve">PERIODE_PAYROLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0324230001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0324230002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0324230003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0324230004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0324230005</t>
   </si>
 </sst>
 </file>
@@ -77,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -90,6 +108,13 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -118,7 +143,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -145,6 +170,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -227,10 +256,10 @@
   <dimension ref="A1:AMJ446"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.8359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="27.84375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.5"/>
@@ -238,7 +267,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="6" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -256,24 +285,59 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0"/>
-      <c r="C5" s="0"/>
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0"/>

--- a/public/template_import/TEMPLATE_IMPORT_PPH.xlsx
+++ b/public/template_import/TEMPLATE_IMPORT_PPH.xlsx
@@ -256,10 +256,10 @@
   <dimension ref="A1:AMJ446"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.84375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="27.8515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.5"/>
